--- a/AllCasesByYear.xlsx
+++ b/AllCasesByYear.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2000Cases" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,13 @@
     <sheet name="2005Cases" sheetId="6" r:id="rId6"/>
     <sheet name="2006Cases" sheetId="7" r:id="rId7"/>
     <sheet name="2007Cases" sheetId="8" r:id="rId8"/>
-    <sheet name="2009Cases" sheetId="9" r:id="rId9"/>
-    <sheet name="2010Cases" sheetId="10" r:id="rId10"/>
-    <sheet name="2011Cases" sheetId="11" r:id="rId11"/>
-    <sheet name="2012Cases" sheetId="12" r:id="rId12"/>
-    <sheet name="2013Cases" sheetId="13" r:id="rId13"/>
-    <sheet name="2014Cases" sheetId="14" r:id="rId14"/>
+    <sheet name="2008Cases" sheetId="15" r:id="rId9"/>
+    <sheet name="2009Cases" sheetId="9" r:id="rId10"/>
+    <sheet name="2010Cases" sheetId="10" r:id="rId11"/>
+    <sheet name="2011Cases" sheetId="11" r:id="rId12"/>
+    <sheet name="2012Cases" sheetId="12" r:id="rId13"/>
+    <sheet name="2013Cases" sheetId="13" r:id="rId14"/>
+    <sheet name="2014Cases" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="1193">
   <si>
     <t>names</t>
   </si>
@@ -3373,6 +3374,249 @@
   </si>
   <si>
     <t>Glossip v. Gross</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alito </t>
+  </si>
+  <si>
+    <t>Moore v. United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brunner v. Ohio Republican Party</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Winter v. Natural Resources Defense Council, Inc.</t>
+  </si>
+  <si>
+    <t>Hedgpeth v. Pulido</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Altria Group, Inc. v. Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jimenez v. Quarterman</t>
+  </si>
+  <si>
+    <t>Chambers v. United States</t>
+  </si>
+  <si>
+    <t>Herring v. United States</t>
+  </si>
+  <si>
+    <t>Oregon v. Ice</t>
+  </si>
+  <si>
+    <t>Waddington v. Sarausad</t>
+  </si>
+  <si>
+    <t>Locke v. Karass</t>
+  </si>
+  <si>
+    <t>Pearson v. Callahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fitzgerald v. Barnstable School Committee</t>
+  </si>
+  <si>
+    <t>Spears v. United States</t>
+  </si>
+  <si>
+    <t>Crawford v. Nashville</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kennedy v. Plan Administrator for DuPont Sav. and Investment Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States v. Eurodif S. A.</t>
+  </si>
+  <si>
+    <t>Arizona v. Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Van de Kamp v. Goldstein</t>
+  </si>
+  <si>
+    <t>Nelson v. United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ysursa v. Pocatello Ed. Assn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carcieri v. Salazar</t>
+  </si>
+  <si>
+    <t>United States v. Hayes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pacific Bell Telephone Co. v. linkLine Communications, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pleasant Grove City v. Summum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Summers v. Earth Island Institute</t>
+  </si>
+  <si>
+    <t>Negusie v. Holder</t>
+  </si>
+  <si>
+    <t>Wyeth v. Levine</t>
+  </si>
+  <si>
+    <t>Bartlett v. Strickland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vaden v. Discover Bank</t>
+  </si>
+  <si>
+    <t>Vermont v. Brillon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Knowles v. Mirzayance</t>
+  </si>
+  <si>
+    <t>Puckett v. United States</t>
+  </si>
+  <si>
+    <t>Rivera v. Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hawaii v. Office of Hawaiian Affairs</t>
+  </si>
+  <si>
+    <t>Harbison v. Bell</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Entergy Corp. v. Riverkeeper, Inc.</t>
+  </si>
+  <si>
+    <t>14 Penn Plaza LLC v. Pyett</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States v. Navajo Nation</t>
+  </si>
+  <si>
+    <t>Corley v. United States</t>
+  </si>
+  <si>
+    <t>Arizona v. Gant</t>
+  </si>
+  <si>
+    <t>article= Ministry of Defense and Support for Armed Forces of Islamic Republic of Iran v. Elahi</t>
+  </si>
+  <si>
+    <t>Shinseki v. Sanders</t>
+  </si>
+  <si>
+    <t>Nken v. Holder</t>
+  </si>
+  <si>
+    <t>Cone v. Bell</t>
+  </si>
+  <si>
+    <t>article=Federal Communications Commission v. Fox Television Stations (2009)</t>
+  </si>
+  <si>
+    <t>Dean v. United States</t>
+  </si>
+  <si>
+    <t>Kansas v. Ventris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burlington N. &amp; S. F. R. Co. v. United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arthur Andersen LLP v. Carlisle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carlsbad Technology, Inc. v. HIF Bio, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flores-Figueroa v. United States</t>
+  </si>
+  <si>
+    <t>Ashcroft v. Iqbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT&amp;T Corp. v. Hulteen</t>
+  </si>
+  <si>
+    <t>Montejo v. Louisiana</t>
+  </si>
+  <si>
+    <t>Haywood v. Drown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abuelhawa v. United States</t>
+  </si>
+  <si>
+    <t>Bobby v. Bies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSX Transp., Inc. v. Hensley</t>
+  </si>
+  <si>
+    <t>Republic of Iraq v. Beaty</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caperton v. A. T. Massey Coal Co.</t>
+  </si>
+  <si>
+    <t>United States v. Denedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States ex rel. Eisenstein v. City of New York</t>
+  </si>
+  <si>
+    <t>Boyle v. United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indiana State Police Pension Trust v. Chrysler LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Polar Tankers, Inc. v. City of Valdez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nijhawan v. Holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> District Attorney's Office for Third Judicial Dist. v. Osborne</t>
+  </si>
+  <si>
+    <t>Yeager v. United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Travelers Indemnity Co. v. Bailey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gross v. FBL Financial Services, Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Northwest Austin Municipal Util. Dist. No. One v. Holder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forest Grove School Dist. v. T. A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coeur Alaska, Inc. v. Southeast Alaska Conservation Council</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melendez-Diaz v. Massachusetts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Safford Unified School Dist. #1 v. Redding</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atlantic Sounding Co. v. Townsend</t>
+  </si>
+  <si>
+    <t>Horne v. Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuomo v. Clearing House Assn., L. L. C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ricci v. DeStefano</t>
   </si>
 </sst>
 </file>
@@ -6879,6 +7123,3378 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J1" t="s">
+        <v>640</v>
+      </c>
+      <c r="M1" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>413</v>
+      </c>
+      <c r="U1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUMPRODUCT(($B:$B=B:B)*(LEN($B:$B)&gt;0))</f>
+        <v>93</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:U2" si="0">SUMPRODUCT(($B:$B=C:C)*(LEN($B:$B)&gt;0))</f>
+        <v>55</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="P2" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="Q2" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="S2" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="T2" s="1">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="U2" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <f>SUMPRODUCT(($C:$C=B:B)*(LEN($C:$C)&gt;0))</f>
+        <v>55</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:U3" si="1">SUMPRODUCT(($C:$C=C:C)*(LEN($C:$C)&gt;0))</f>
+        <v>93</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <f>SUMPRODUCT(($D:$D=B:B)*(LEN($D:$D)&gt;0))</f>
+        <v>71</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:U4" si="2">SUMPRODUCT(($D:$D=C:C)*(LEN($D:$D)&gt;0))</f>
+        <v>49</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="T4" s="1">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="U4" s="1">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1">
+        <f>SUMPRODUCT(($E:$E=B:B)*(LEN($E:$E)&gt;0))</f>
+        <v>75</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N5:U5" si="3">SUMPRODUCT(($E:$E=C:C)*(LEN($E:$E)&gt;0))</f>
+        <v>61</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="U5" s="1">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1">
+        <f>SUMPRODUCT(($F:$F=B:B)*(LEN($F:$F)&gt;0))</f>
+        <v>71</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" ref="N6:U6" si="4">SUMPRODUCT(($F:$F=C:C)*(LEN($F:$F)&gt;0))</f>
+        <v>46</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="U6" s="1">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1">
+        <f>SUMPRODUCT(($G:$G=B:B)*(LEN($G:$G)&gt;0))</f>
+        <v>67</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7:U7" si="5">SUMPRODUCT(($G:$G=C:C)*(LEN($G:$G)&gt;0))</f>
+        <v>70</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="5"/>
+        <v>93</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="U7" s="1">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1">
+        <f>SUMPRODUCT(($H:$H=B:B)*(LEN($I:$I)&gt;0))</f>
+        <v>63</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" ref="N8:U8" si="6">SUMPRODUCT(($H:$H=C:C)*(LEN($I:$I)&gt;0))</f>
+        <v>72</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="T8" s="1">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="U8" s="1">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>648</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>413</v>
+      </c>
+      <c r="M9" s="1">
+        <f>SUMPRODUCT(($I:$I=B:B)*(LEN($I:$I)&gt;0))</f>
+        <v>76</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ref="N9:U9" si="7">SUMPRODUCT(($I:$I=C:C)*(LEN($I:$I)&gt;0))</f>
+        <v>48</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="T9" s="1">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="U9" s="1">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>649</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>640</v>
+      </c>
+      <c r="M10" s="1">
+        <f>SUMPRODUCT(($J:$J=B:B)*(LEN($J:$J)&gt;0))</f>
+        <v>70</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" ref="N10:U10" si="8">SUMPRODUCT(($J:$J=C:C)*(LEN($J:$J)&gt;0))</f>
+        <v>69</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="8"/>
+        <v>58</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>650</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>651</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>652</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>653</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>655</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>656</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>657</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>658</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>659</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>660</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="e">
+        <f>Briscoe v. Virginia</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>661</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>662</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>663</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>664</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>665</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>666</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>667</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>668</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>669</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>670</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>671</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>672</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>673</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>674</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>675</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>676</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>677</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>678</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>679</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>680</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0.5</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>681</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>0.5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0.5</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>682</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>683</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0.5</v>
+      </c>
+      <c r="E46">
+        <v>0.5</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>684</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>685</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>686</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>687</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>688</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="e">
+        <f>Sullivan v. Florida</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>689</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>690</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>691</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>692</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>693</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>694</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>695</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>696</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>697</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>698</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>699</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.5</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>0.5</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>0.5</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>700</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>701</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>702</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>703</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0.5</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>704</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>705</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.5</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0.5</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>706</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>707</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>708</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>0.5</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>709</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>710</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>711</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>712</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>713</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>714</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>715</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>716</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>717</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>718</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="D82">
+        <v>0.5</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>719</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0.5</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0.5</v>
+      </c>
+      <c r="H83">
+        <v>0.5</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>720</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>721</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>722</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>723</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.5</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+      <c r="F87">
+        <v>0.5</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="e">
+        <f>Weyhrauch v. United States</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>724</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>725</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>0.5</v>
+      </c>
+      <c r="D90">
+        <v>0.5</v>
+      </c>
+      <c r="E90">
+        <v>0.5</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0.5</v>
+      </c>
+      <c r="H90">
+        <v>0.5</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>726</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>727</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>728</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10025,7 +13641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
@@ -12948,7 +16564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U80"/>
   <sheetViews>
@@ -15899,7 +19515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U76"/>
   <sheetViews>
@@ -18722,11 +22338,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
@@ -39667,7 +43283,7 @@
   <dimension ref="A1:U74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L1" sqref="L1:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42427,44 +46043,44 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>413</v>
-      </c>
-      <c r="J1" t="s">
-        <v>640</v>
+      <c r="J1" s="2" t="s">
+        <v>1112</v>
       </c>
       <c r="M1" t="s">
         <v>412</v>
@@ -42479,50 +46095,50 @@
         <v>5</v>
       </c>
       <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>413</v>
       </c>
-      <c r="U1" t="s">
-        <v>640</v>
-      </c>
     </row>
     <row r="2" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>641</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
+      <c r="A2" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
@@ -42530,70 +46146,70 @@
       </c>
       <c r="M2" s="1">
         <f>SUMPRODUCT(($B:$B=B:B)*(LEN($B:$B)&gt;0))</f>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" ref="N2:U2" si="0">SUMPRODUCT(($B:$B=C:C)*(LEN($B:$B)&gt;0))</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="R2" s="1">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="S2" s="1">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="T2" s="1">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="U2" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>642</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
+      <c r="A3" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
         <v>1</v>
       </c>
       <c r="L3" t="s">
@@ -42601,70 +46217,70 @@
       </c>
       <c r="M3" s="1">
         <f>SUMPRODUCT(($C:$C=B:B)*(LEN($C:$C)&gt;0))</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:U3" si="1">SUMPRODUCT(($C:$C=C:C)*(LEN($C:$C)&gt;0))</f>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="O3" s="1">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="P3" s="1">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="1">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="R3" s="1">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="S3" s="1">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="T3" s="1">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="U3" s="1">
         <f t="shared" si="1"/>
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>643</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
+      <c r="A4" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>1</v>
       </c>
       <c r="L4" t="s">
@@ -42672,70 +46288,70 @@
       </c>
       <c r="M4" s="1">
         <f>SUMPRODUCT(($D:$D=B:B)*(LEN($D:$D)&gt;0))</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:U4" si="2">SUMPRODUCT(($D:$D=C:C)*(LEN($D:$D)&gt;0))</f>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="O4" s="1">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="P4" s="1">
         <f t="shared" si="2"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="R4" s="1">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="S4" s="1">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>644</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
+      <c r="A5" s="2" t="e">
+        <v>#NAME?</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="L5" t="s">
@@ -42743,3053 +46359,2762 @@
       </c>
       <c r="M5" s="1">
         <f>SUMPRODUCT(($E:$E=B:B)*(LEN($E:$E)&gt;0))</f>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" ref="N5:U5" si="3">SUMPRODUCT(($E:$E=C:C)*(LEN($E:$E)&gt;0))</f>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="3"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="R5" s="1">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>645</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="A6" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M6" s="1">
         <f>SUMPRODUCT(($F:$F=B:B)*(LEN($F:$F)&gt;0))</f>
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" ref="N6:U6" si="4">SUMPRODUCT(($F:$F=C:C)*(LEN($F:$F)&gt;0))</f>
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="4"/>
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R6" s="1">
         <f t="shared" si="4"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S6" s="1">
         <f t="shared" si="4"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="4"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>646</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+      <c r="A7" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" s="1">
         <f>SUMPRODUCT(($G:$G=B:B)*(LEN($G:$G)&gt;0))</f>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" ref="N7:U7" si="5">SUMPRODUCT(($G:$G=C:C)*(LEN($G:$G)&gt;0))</f>
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="O7" s="1">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P7" s="1">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" si="5"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="S7" s="1">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="5"/>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>647</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="A8" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8" s="1">
         <f>SUMPRODUCT(($H:$H=B:B)*(LEN($I:$I)&gt;0))</f>
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" ref="N8:U8" si="6">SUMPRODUCT(($H:$H=C:C)*(LEN($I:$I)&gt;0))</f>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P8" s="1">
         <f t="shared" si="6"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="R8" s="1">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="S8" s="1">
         <f t="shared" si="6"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" si="6"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="6"/>
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>648</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+      <c r="A9" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.5</v>
       </c>
       <c r="L9" t="s">
-        <v>413</v>
+        <v>9</v>
       </c>
       <c r="M9" s="1">
         <f>SUMPRODUCT(($I:$I=B:B)*(LEN($I:$I)&gt;0))</f>
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" ref="N9:U9" si="7">SUMPRODUCT(($I:$I=C:C)*(LEN($I:$I)&gt;0))</f>
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="O9" s="1">
         <f t="shared" si="7"/>
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="P9" s="1">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="R9" s="1">
         <f t="shared" si="7"/>
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="7"/>
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="7"/>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>649</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
+      <c r="A10" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>640</v>
+        <v>413</v>
       </c>
       <c r="M10" s="1">
         <f>SUMPRODUCT(($J:$J=B:B)*(LEN($J:$J)&gt;0))</f>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" ref="N10:U10" si="8">SUMPRODUCT(($J:$J=C:C)*(LEN($J:$J)&gt;0))</f>
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="8"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="8"/>
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="R10" s="1">
         <f t="shared" si="8"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="S10" s="1">
         <f t="shared" si="8"/>
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="T10" s="1">
         <f t="shared" si="8"/>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>650</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
+      <c r="A11" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>651</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
+      <c r="A12" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>652</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
+      <c r="A13" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>653</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+      <c r="A14" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>654</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
+      <c r="A15" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>655</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
+      <c r="A16" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>656</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
+      <c r="A17" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>0.5</v>
       </c>
-      <c r="J17">
-        <v>1</v>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>657</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+      <c r="A18" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>658</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
+      <c r="A19" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>659</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
+      <c r="A20" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>660</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-      <c r="J21">
+      <c r="A21" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="e">
-        <f>Briscoe v. Virginia</f>
+      <c r="A22" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="e">
         <v>#NAME?</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>661</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B40" s="2">
         <v>0.5</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
         <v>0.5</v>
       </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>662</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>663</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>664</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>665</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B41" s="2">
+        <v>1</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B42" s="2">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B49" s="2">
         <v>0.5</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>666</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>370</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>667</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30">
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B52" s="2">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
+        <v>1</v>
+      </c>
+      <c r="J56" s="2">
         <v>0.5</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>1</v>
+      </c>
+      <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>1</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2">
+        <v>1</v>
+      </c>
+      <c r="I64" s="2">
+        <v>1</v>
+      </c>
+      <c r="J64" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1</v>
+      </c>
+      <c r="I65" s="2">
+        <v>1</v>
+      </c>
+      <c r="J65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1</v>
+      </c>
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
+        <v>0</v>
+      </c>
+      <c r="J68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1</v>
+      </c>
+      <c r="I69" s="2">
+        <v>1</v>
+      </c>
+      <c r="J69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B70" s="2">
         <v>0.5</v>
       </c>
-      <c r="H30">
+      <c r="C70" s="2">
         <v>0.5</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>668</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>669</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>670</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>671</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>672</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>673</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>674</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>675</v>
-      </c>
-      <c r="B38">
+      <c r="D70" s="2">
         <v>0.5</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0.5</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>676</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>677</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>678</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>679</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>680</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0.5</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>681</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>0.5</v>
-      </c>
-      <c r="D44">
-        <v>0.5</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0.5</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>682</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>683</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0.5</v>
-      </c>
-      <c r="E46">
-        <v>0.5</v>
-      </c>
-      <c r="F46">
-        <v>0.5</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>684</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>685</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>686</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>687</v>
-      </c>
-      <c r="B50">
-        <v>0.5</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>688</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <v>0.5</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0.5</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="e">
-        <f>Sullivan v. Florida</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>689</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>690</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>691</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0.5</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>692</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>693</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>694</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>695</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>696</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0.5</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0.5</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>697</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>698</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>699</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>0.5</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0.5</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>0.5</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>700</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>701</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>702</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>703</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>0.5</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>704</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>705</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>0.5</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0.5</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>1</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>706</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70">
+      <c r="E70" s="2">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>1</v>
+      </c>
+      <c r="I70" s="2">
+        <v>1</v>
+      </c>
+      <c r="J70" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>707</v>
-      </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
-      </c>
-      <c r="J71">
+      <c r="A71" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="2">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2">
+        <v>1</v>
+      </c>
+      <c r="I71" s="2">
+        <v>1</v>
+      </c>
+      <c r="J71" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>708</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0.5</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
+      <c r="A72" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="2">
+        <v>0</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>709</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
+      <c r="A73" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>1</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>710</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
+      <c r="A74" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>711</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
+      <c r="A75" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="2">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>712</v>
-      </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
+      <c r="A76" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B76" s="2">
+        <v>1</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>713</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
+      <c r="A77" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>714</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
+      <c r="A78" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+      <c r="J78" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>715</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
+      <c r="A79" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>716</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
+      <c r="A80" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>717</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
+      <c r="A81" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>718</v>
-      </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>0.5</v>
-      </c>
-      <c r="D82">
-        <v>0.5</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
+      <c r="A82" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>719</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>0.5</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>0.5</v>
-      </c>
-      <c r="H83">
-        <v>0.5</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
+      <c r="A83" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2">
+        <v>1</v>
+      </c>
+      <c r="J83" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>720</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>721</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>722</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>723</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87">
-        <v>0.5</v>
-      </c>
-      <c r="E87">
-        <v>0.5</v>
-      </c>
-      <c r="F87">
-        <v>0.5</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="e">
-        <f>Weyhrauch v. United States</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>1</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>724</v>
-      </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>725</v>
-      </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>0.5</v>
-      </c>
-      <c r="D90">
-        <v>0.5</v>
-      </c>
-      <c r="E90">
-        <v>0.5</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>0.5</v>
-      </c>
-      <c r="H90">
-        <v>0.5</v>
-      </c>
-      <c r="I90">
-        <v>1</v>
-      </c>
-      <c r="J90">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>726</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>727</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>1</v>
-      </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>728</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>1</v>
+      <c r="A84" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
